--- a/Homework2/RGB.xlsx
+++ b/Homework2/RGB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mekhakghapantsyan/Desktop/Hmw1Image/Hmw1/Homework2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BBD131-681C-6946-A209-5F980DA65C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAB2E49-392B-D445-B8EB-8AAE26049566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15020" windowHeight="19940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ovals Manual 11" sheetId="1" r:id="rId1"/>
@@ -17518,7 +17518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
@@ -28599,8 +28599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28637,13 +28637,21 @@
         <f t="shared" ref="B3:B10" si="0">($B$1+ROW()-3)&amp;"-11.jpg"</f>
         <v>57-11.jpg</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="C3" s="3">
+        <v>227</v>
+      </c>
+      <c r="D3" s="3">
+        <v>106</v>
+      </c>
+      <c r="E3" s="3">
+        <v>192</v>
+      </c>
+      <c r="F3" s="3">
+        <v>343</v>
+      </c>
       <c r="G3" s="9" t="str">
         <f t="shared" ref="G3:G10" si="1">"makeOval("&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;");"</f>
-        <v>makeOval(,,,);</v>
+        <v>makeOval(227,106,192,343);</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
@@ -28651,13 +28659,21 @@
         <f t="shared" si="0"/>
         <v>58-11.jpg</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="C4" s="3">
+        <v>230</v>
+      </c>
+      <c r="D4" s="3">
+        <v>60</v>
+      </c>
+      <c r="E4" s="3">
+        <v>206</v>
+      </c>
+      <c r="F4" s="3">
+        <v>385</v>
+      </c>
       <c r="G4" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>makeOval(,,,);</v>
+        <v>makeOval(230,60,206,385);</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
@@ -28665,13 +28681,21 @@
         <f t="shared" si="0"/>
         <v>59-11.jpg</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="3">
+        <v>234</v>
+      </c>
+      <c r="D5" s="3">
+        <v>106</v>
+      </c>
+      <c r="E5" s="3">
+        <v>190</v>
+      </c>
+      <c r="F5" s="3">
+        <v>287</v>
+      </c>
       <c r="G5" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>makeOval(,,,);</v>
+        <v>makeOval(234,106,190,287);</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
@@ -28679,13 +28703,21 @@
         <f t="shared" si="0"/>
         <v>60-11.jpg</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="C6" s="3">
+        <v>244</v>
+      </c>
+      <c r="D6" s="3">
+        <v>124</v>
+      </c>
+      <c r="E6" s="3">
+        <v>143</v>
+      </c>
+      <c r="F6" s="3">
+        <v>222</v>
+      </c>
       <c r="G6" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>makeOval(,,,);</v>
+        <v>makeOval(244,124,143,222);</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
@@ -28693,13 +28725,21 @@
         <f t="shared" si="0"/>
         <v>61-11.jpg</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="3">
+        <v>202</v>
+      </c>
+      <c r="D7" s="3">
+        <v>90</v>
+      </c>
+      <c r="E7" s="3">
+        <v>223</v>
+      </c>
+      <c r="F7" s="3">
+        <v>273</v>
+      </c>
       <c r="G7" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>makeOval(,,,);</v>
+        <v>makeOval(202,90,223,273);</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
@@ -28707,13 +28747,21 @@
         <f t="shared" si="0"/>
         <v>62-11.jpg</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="C8" s="3">
+        <v>215</v>
+      </c>
+      <c r="D8" s="3">
+        <v>79</v>
+      </c>
+      <c r="E8" s="3">
+        <v>204</v>
+      </c>
+      <c r="F8" s="3">
+        <v>313</v>
+      </c>
       <c r="G8" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>makeOval(,,,);</v>
+        <v>makeOval(215,79,204,313);</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
@@ -28721,13 +28769,21 @@
         <f t="shared" si="0"/>
         <v>63-11.jpg</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="C9" s="3">
+        <v>203</v>
+      </c>
+      <c r="D9" s="3">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3">
+        <v>215</v>
+      </c>
+      <c r="F9" s="3">
+        <v>329</v>
+      </c>
       <c r="G9" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>makeOval(,,,);</v>
+        <v>makeOval(203,50,215,329);</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
@@ -28735,13 +28791,21 @@
         <f t="shared" si="0"/>
         <v>64-11.jpg</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="C10" s="3">
+        <v>219</v>
+      </c>
+      <c r="D10" s="3">
+        <v>101</v>
+      </c>
+      <c r="E10" s="3">
+        <v>179</v>
+      </c>
+      <c r="F10" s="3">
+        <v>293</v>
+      </c>
       <c r="G10" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>makeOval(,,,);</v>
+        <v>makeOval(219,101,179,293);</v>
       </c>
     </row>
   </sheetData>
